--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF6F14D-43A4-44ED-91E5-BE8DCD324BF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,8 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -224,12 +224,21 @@
   </si>
   <si>
     <t>50095</t>
+  </si>
+  <si>
+    <t>20099</t>
+  </si>
+  <si>
+    <t>forUM</t>
+  </si>
+  <si>
+    <t>forUMOne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -378,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -555,18 +564,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -826,6 +836,89 @@
         <v>31</v>
       </c>
       <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -836,7 +929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1121,7 +1215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1164,11 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC08BA6-A3F7-4DFE-9E88-AF8A32A9776A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="77">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -100,9 +99,6 @@
     <t>qatest</t>
   </si>
   <si>
-    <t>Voice,Email,SMS,TextChat,VideoChat</t>
-  </si>
-  <si>
     <t>Auto-In</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>testChatTemplate</t>
   </si>
   <si>
-    <t>510091</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>testQASupervisor</t>
   </si>
   <si>
-    <t>510081</t>
-  </si>
-  <si>
     <t>Agent</t>
   </si>
   <si>
@@ -233,6 +223,36 @@
   </si>
   <si>
     <t>forUMOne</t>
+  </si>
+  <si>
+    <t>Total Faxout Tabs Allowed</t>
+  </si>
+  <si>
+    <t>Total FaxInternational Tabs Allowed</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Voice,Email,SMS,TextChat,VideoChat,AudioChat,Fax,Faxout,FaxInternational</t>
+  </si>
+  <si>
+    <t>Manual-In</t>
+  </si>
+  <si>
+    <t>50097</t>
+  </si>
+  <si>
+    <t>DuplicateLanID</t>
+  </si>
+  <si>
+    <t>DuplicateAvayaId</t>
+  </si>
+  <si>
+    <t>DuplicateAvayaID</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -564,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,10 +593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +610,7 @@
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -610,78 +630,84 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -690,236 +716,432 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="s">
         <v>26</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>70</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="s">
         <v>26</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +1153,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,13 +1166,13 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -970,78 +1192,84 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1053,159 +1281,171 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>35</v>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>35</v>
+      <c r="AD3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1460,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1479,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1247,7 +1487,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1263,8 +1503,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,54 +1521,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -584,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,8 +596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +607,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1503,7 +1504,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L16"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="83">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>30099</t>
+  </si>
+  <si>
+    <t>testQASupervisor3</t>
+  </si>
+  <si>
+    <t>qatestUpdated</t>
+  </si>
+  <si>
+    <t>Updated FirstName</t>
+  </si>
+  <si>
+    <t>OrgUnit</t>
+  </si>
+  <si>
+    <t>ProductQA</t>
   </si>
 </sst>
 </file>
@@ -585,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,14 +614,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -702,10 +720,10 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1154,26 +1172,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="32" max="32" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,112 +1206,118 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1311,32 +1339,32 @@
       <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>60</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>70</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>76</v>
@@ -1344,20 +1372,26 @@
       <c r="Z2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1367,21 +1401,15 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1403,32 +1431,32 @@
       <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>61</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>70</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>76</v>
@@ -1436,16 +1464,22 @@
       <c r="Z3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="s">
         <v>25</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1504,7 +1538,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,12 @@
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="85">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -272,6 +267,12 @@
   </si>
   <si>
     <t>ProductQA</t>
+  </si>
+  <si>
+    <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
+  </si>
+  <si>
+    <t>Aravind ET</t>
   </si>
 </sst>
 </file>
@@ -322,11 +323,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,9 +346,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,551 +618,552 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="W2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="W3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AB3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="W4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AB4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="W5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AB5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="W6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AB6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1175,14 +1179,14 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -1195,7 +1199,7 @@
     <col min="32" max="32" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1315,8 +1319,8 @@
       <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
-        <v>59</v>
+      <c r="H2" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1345,8 +1349,8 @@
       <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
-        <v>60</v>
+      <c r="R2" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>76</v>
@@ -1391,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1407,8 +1411,8 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>59</v>
+      <c r="H3" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1492,41 +1496,311 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="AF4" s="6"/>
+    </row>
+    <row r="5" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,7 +1812,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:I16"/>
 </workbook>
 </file>
 
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,8 +617,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="13710" windowHeight="6500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I16"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="91">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -263,16 +268,34 @@
     <t>Updated FirstName</t>
   </si>
   <si>
-    <t>OrgUnit</t>
-  </si>
-  <si>
-    <t>ProductQA</t>
-  </si>
-  <si>
-    <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
-  </si>
-  <si>
-    <t>Aravind ET</t>
+    <t>testQASupervisor8</t>
+  </si>
+  <si>
+    <t>QaTest</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bengalore&gt;ProductQA</t>
+  </si>
+  <si>
+    <t>70099</t>
+  </si>
+  <si>
+    <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>testQASupervisor9</t>
+  </si>
+  <si>
+    <t>80099</t>
+  </si>
+  <si>
+    <t>testQASupervisor7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testQASupervisor8 </t>
   </si>
 </sst>
 </file>
@@ -323,16 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,6 +364,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -606,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,556 +636,645 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V4" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AB4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V7" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="W7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1176,30 +1286,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1"/>
-    <col min="32" max="32" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="22" max="22" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,85 +1330,82 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1317,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1346,11 +1454,11 @@
       <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>84</v>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>76</v>
@@ -1359,16 +1467,16 @@
         <v>76</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>76</v>
@@ -1379,23 +1487,20 @@
       <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1411,8 +1516,11 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>83</v>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1438,11 +1546,11 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>61</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>76</v>
@@ -1451,16 +1559,16 @@
         <v>76</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" t="s">
-        <v>70</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>76</v>
@@ -1471,19 +1579,109 @@
       <c r="AA3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AB3" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1496,314 +1694,404 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="V4" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>25</v>
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="AF4" s="6"/>
-    </row>
-    <row r="5" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AF6" s="1"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1813,19 +2101,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1883,4 +2171,387 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="13710" windowHeight="6500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,20 +638,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -790,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -832,7 +832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -921,7 +921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
@@ -1292,25 +1292,25 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="22" max="22" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1696,24 +1696,24 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -2104,16 +2104,16 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,22 +2177,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="93">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t xml:space="preserve">testQASupervisor8 </t>
+  </si>
+  <si>
+    <t>Chaithra Kanchan</t>
+  </si>
+  <si>
+    <t>Qualified</t>
   </si>
 </sst>
 </file>
@@ -638,8 +644,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +658,7 @@
     <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
@@ -808,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>29</v>
@@ -879,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>29</v>
@@ -897,7 +904,7 @@
         <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>29</v>
@@ -986,7 +993,7 @@
         <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>29</v>
@@ -1075,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>29</v>
@@ -1253,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>29</v>
@@ -1289,7 +1296,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1423,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1455,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>76</v>
@@ -1476,16 +1483,16 @@
         <v>70</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="s">
         <v>26</v>
@@ -1494,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="AD2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>33</v>
@@ -1696,8 +1703,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1820,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1898,10 +1905,94 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="90">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -130,9 +131,6 @@
     <t>testQAAgent</t>
   </si>
   <si>
-    <t>testQASupervisor</t>
-  </si>
-  <si>
     <t>Agent</t>
   </si>
   <si>
@@ -205,15 +203,9 @@
     <t>India&gt;South&gt;Bengaluru&gt;ProductQA</t>
   </si>
   <si>
-    <t>test south</t>
-  </si>
-  <si>
     <t>Qatest Supervisor</t>
   </si>
   <si>
-    <t>50096</t>
-  </si>
-  <si>
     <t>50095</t>
   </si>
   <si>
@@ -277,9 +269,6 @@
     <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
   </si>
   <si>
-    <t>India&gt;South&gt;Bengalore&gt;ProductQA</t>
-  </si>
-  <si>
     <t>70099</t>
   </si>
   <si>
@@ -302,6 +291,9 @@
   </si>
   <si>
     <t>Qualified</t>
+  </si>
+  <si>
+    <t>Santosh K</t>
   </si>
 </sst>
 </file>
@@ -644,8 +636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,22 +673,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -752,13 +744,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -767,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -788,7 +780,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>28</v>
@@ -797,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -815,7 +807,7 @@
         <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>29</v>
@@ -836,12 +828,12 @@
         <v>29</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -850,13 +842,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -877,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>28</v>
@@ -886,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>29</v>
@@ -904,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>29</v>
@@ -919,33 +911,33 @@
         <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
@@ -975,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>29</v>
@@ -993,7 +985,7 @@
         <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>29</v>
@@ -1014,27 +1006,27 @@
         <v>29</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1064,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>29</v>
@@ -1082,7 +1074,7 @@
         <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>29</v>
@@ -1103,27 +1095,27 @@
         <v>29</v>
       </c>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
@@ -1153,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>29</v>
@@ -1171,7 +1163,7 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>29</v>
@@ -1186,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="AA6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>29</v>
@@ -1197,13 +1189,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1212,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>28</v>
@@ -1233,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1234,7 @@
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>29</v>
@@ -1260,7 +1252,7 @@
         <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>29</v>
@@ -1281,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1288,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -1340,22 +1332,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
@@ -1414,16 +1406,16 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1432,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>28</v>
@@ -1462,16 +1454,16 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>28</v>
@@ -1480,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>29</v>
@@ -1501,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>33</v>
@@ -1509,7 +1501,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1518,52 +1510,52 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>28</v>
@@ -1572,22 +1564,22 @@
         <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>29</v>
@@ -1601,16 +1593,16 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1619,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -1638,7 +1630,7 @@
         <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>28</v>
@@ -1647,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>29</v>
@@ -1665,7 +1657,7 @@
         <v>27</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>29</v>
@@ -1686,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>33</v>
@@ -1703,8 +1695,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,22 +1732,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -1814,13 +1806,13 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1829,7 +1821,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -1859,16 +1851,16 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>28</v>
@@ -1877,19 +1869,19 @@
         <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
         <v>26</v>
@@ -1906,7 +1898,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1915,13 +1907,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1951,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>29</v>
@@ -1969,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>29</v>
@@ -1984,13 +1976,13 @@
         <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>2</v>
@@ -1998,13 +1990,13 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2013,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2043,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>29</v>
@@ -2061,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>29</v>
@@ -2082,7 +2074,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>2</v>
@@ -2090,13 +2082,13 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2105,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2135,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>29</v>
@@ -2153,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>29</v>
@@ -2174,7 +2166,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>2</v>
@@ -2209,54 +2201,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2303,22 +2295,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -2374,13 +2366,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2389,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -2410,7 +2402,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>28</v>
@@ -2419,7 +2411,7 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -2437,7 +2429,7 @@
         <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>29</v>
@@ -2458,18 +2450,18 @@
         <v>29</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2478,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -2499,7 +2491,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>28</v>
@@ -2508,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>29</v>
@@ -2526,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>29</v>
@@ -2547,18 +2539,18 @@
         <v>29</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2567,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
@@ -2588,7 +2580,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>28</v>
@@ -2597,7 +2589,7 @@
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>29</v>
@@ -2615,7 +2607,7 @@
         <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>29</v>
@@ -2636,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Report" sheetId="4" r:id="rId4"/>
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
+    <sheet name="Create1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="597">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -294,6 +294,1527 @@
   </si>
   <si>
     <t>Santosh K</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>11112</t>
+  </si>
+  <si>
+    <t>11113</t>
+  </si>
+  <si>
+    <t>11114</t>
+  </si>
+  <si>
+    <t>11115</t>
+  </si>
+  <si>
+    <t>11116</t>
+  </si>
+  <si>
+    <t>11117</t>
+  </si>
+  <si>
+    <t>11118</t>
+  </si>
+  <si>
+    <t>11119</t>
+  </si>
+  <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>11121</t>
+  </si>
+  <si>
+    <t>11122</t>
+  </si>
+  <si>
+    <t>11123</t>
+  </si>
+  <si>
+    <t>11124</t>
+  </si>
+  <si>
+    <t>11125</t>
+  </si>
+  <si>
+    <t>11126</t>
+  </si>
+  <si>
+    <t>11127</t>
+  </si>
+  <si>
+    <t>11128</t>
+  </si>
+  <si>
+    <t>11129</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>11131</t>
+  </si>
+  <si>
+    <t>aa1</t>
+  </si>
+  <si>
+    <t>aa2</t>
+  </si>
+  <si>
+    <t>aa3</t>
+  </si>
+  <si>
+    <t>aa4</t>
+  </si>
+  <si>
+    <t>aa5</t>
+  </si>
+  <si>
+    <t>aa6</t>
+  </si>
+  <si>
+    <t>aa7</t>
+  </si>
+  <si>
+    <t>aa8</t>
+  </si>
+  <si>
+    <t>aa9</t>
+  </si>
+  <si>
+    <t>aa10</t>
+  </si>
+  <si>
+    <t>aa11</t>
+  </si>
+  <si>
+    <t>aa12</t>
+  </si>
+  <si>
+    <t>aa13</t>
+  </si>
+  <si>
+    <t>aa14</t>
+  </si>
+  <si>
+    <t>aa15</t>
+  </si>
+  <si>
+    <t>aa16</t>
+  </si>
+  <si>
+    <t>aa17</t>
+  </si>
+  <si>
+    <t>aa18</t>
+  </si>
+  <si>
+    <t>aa19</t>
+  </si>
+  <si>
+    <t>aa20</t>
+  </si>
+  <si>
+    <t>aa21</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>Test14</t>
+  </si>
+  <si>
+    <t>Test15</t>
+  </si>
+  <si>
+    <t>Test16</t>
+  </si>
+  <si>
+    <t>Test17</t>
+  </si>
+  <si>
+    <t>Test18</t>
+  </si>
+  <si>
+    <t>Test19</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>Test21</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team1</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team29</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team30</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team32</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team33</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;tem36</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team37</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team41</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;tea42</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;test48</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;tem60</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team88</t>
+  </si>
+  <si>
+    <t>11132</t>
+  </si>
+  <si>
+    <t>11133</t>
+  </si>
+  <si>
+    <t>11134</t>
+  </si>
+  <si>
+    <t>11135</t>
+  </si>
+  <si>
+    <t>11136</t>
+  </si>
+  <si>
+    <t>11137</t>
+  </si>
+  <si>
+    <t>11138</t>
+  </si>
+  <si>
+    <t>11139</t>
+  </si>
+  <si>
+    <t>11140</t>
+  </si>
+  <si>
+    <t>11141</t>
+  </si>
+  <si>
+    <t>11142</t>
+  </si>
+  <si>
+    <t>11143</t>
+  </si>
+  <si>
+    <t>11144</t>
+  </si>
+  <si>
+    <t>11145</t>
+  </si>
+  <si>
+    <t>11146</t>
+  </si>
+  <si>
+    <t>11147</t>
+  </si>
+  <si>
+    <t>11148</t>
+  </si>
+  <si>
+    <t>11149</t>
+  </si>
+  <si>
+    <t>11150</t>
+  </si>
+  <si>
+    <t>11151</t>
+  </si>
+  <si>
+    <t>11152</t>
+  </si>
+  <si>
+    <t>11153</t>
+  </si>
+  <si>
+    <t>11154</t>
+  </si>
+  <si>
+    <t>11155</t>
+  </si>
+  <si>
+    <t>11156</t>
+  </si>
+  <si>
+    <t>11157</t>
+  </si>
+  <si>
+    <t>11158</t>
+  </si>
+  <si>
+    <t>11159</t>
+  </si>
+  <si>
+    <t>11160</t>
+  </si>
+  <si>
+    <t>11161</t>
+  </si>
+  <si>
+    <t>11162</t>
+  </si>
+  <si>
+    <t>11163</t>
+  </si>
+  <si>
+    <t>11164</t>
+  </si>
+  <si>
+    <t>11165</t>
+  </si>
+  <si>
+    <t>11166</t>
+  </si>
+  <si>
+    <t>11167</t>
+  </si>
+  <si>
+    <t>11168</t>
+  </si>
+  <si>
+    <t>11169</t>
+  </si>
+  <si>
+    <t>11170</t>
+  </si>
+  <si>
+    <t>11171</t>
+  </si>
+  <si>
+    <t>11172</t>
+  </si>
+  <si>
+    <t>11173</t>
+  </si>
+  <si>
+    <t>11174</t>
+  </si>
+  <si>
+    <t>11175</t>
+  </si>
+  <si>
+    <t>11176</t>
+  </si>
+  <si>
+    <t>11177</t>
+  </si>
+  <si>
+    <t>11178</t>
+  </si>
+  <si>
+    <t>11179</t>
+  </si>
+  <si>
+    <t>11180</t>
+  </si>
+  <si>
+    <t>11181</t>
+  </si>
+  <si>
+    <t>11182</t>
+  </si>
+  <si>
+    <t>11183</t>
+  </si>
+  <si>
+    <t>11184</t>
+  </si>
+  <si>
+    <t>11185</t>
+  </si>
+  <si>
+    <t>11186</t>
+  </si>
+  <si>
+    <t>11187</t>
+  </si>
+  <si>
+    <t>11188</t>
+  </si>
+  <si>
+    <t>11189</t>
+  </si>
+  <si>
+    <t>11190</t>
+  </si>
+  <si>
+    <t>11191</t>
+  </si>
+  <si>
+    <t>11192</t>
+  </si>
+  <si>
+    <t>11193</t>
+  </si>
+  <si>
+    <t>11194</t>
+  </si>
+  <si>
+    <t>11195</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>11197</t>
+  </si>
+  <si>
+    <t>11198</t>
+  </si>
+  <si>
+    <t>11199</t>
+  </si>
+  <si>
+    <t>11200</t>
+  </si>
+  <si>
+    <t>11201</t>
+  </si>
+  <si>
+    <t>11202</t>
+  </si>
+  <si>
+    <t>11203</t>
+  </si>
+  <si>
+    <t>11204</t>
+  </si>
+  <si>
+    <t>11205</t>
+  </si>
+  <si>
+    <t>11206</t>
+  </si>
+  <si>
+    <t>11207</t>
+  </si>
+  <si>
+    <t>11208</t>
+  </si>
+  <si>
+    <t>11209</t>
+  </si>
+  <si>
+    <t>11210</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>Test25</t>
+  </si>
+  <si>
+    <t>Test26</t>
+  </si>
+  <si>
+    <t>Test27</t>
+  </si>
+  <si>
+    <t>Test28</t>
+  </si>
+  <si>
+    <t>Test29</t>
+  </si>
+  <si>
+    <t>Test30</t>
+  </si>
+  <si>
+    <t>Test31</t>
+  </si>
+  <si>
+    <t>Test32</t>
+  </si>
+  <si>
+    <t>Test33</t>
+  </si>
+  <si>
+    <t>Test34</t>
+  </si>
+  <si>
+    <t>Test35</t>
+  </si>
+  <si>
+    <t>Test36</t>
+  </si>
+  <si>
+    <t>Test37</t>
+  </si>
+  <si>
+    <t>Test38</t>
+  </si>
+  <si>
+    <t>Test39</t>
+  </si>
+  <si>
+    <t>Test40</t>
+  </si>
+  <si>
+    <t>Test41</t>
+  </si>
+  <si>
+    <t>Test42</t>
+  </si>
+  <si>
+    <t>Test43</t>
+  </si>
+  <si>
+    <t>Test44</t>
+  </si>
+  <si>
+    <t>Test45</t>
+  </si>
+  <si>
+    <t>Test46</t>
+  </si>
+  <si>
+    <t>Test47</t>
+  </si>
+  <si>
+    <t>Test48</t>
+  </si>
+  <si>
+    <t>Test49</t>
+  </si>
+  <si>
+    <t>Test50</t>
+  </si>
+  <si>
+    <t>Test51</t>
+  </si>
+  <si>
+    <t>Test52</t>
+  </si>
+  <si>
+    <t>Test53</t>
+  </si>
+  <si>
+    <t>Test54</t>
+  </si>
+  <si>
+    <t>Test55</t>
+  </si>
+  <si>
+    <t>Test56</t>
+  </si>
+  <si>
+    <t>Test57</t>
+  </si>
+  <si>
+    <t>Test58</t>
+  </si>
+  <si>
+    <t>Test59</t>
+  </si>
+  <si>
+    <t>Test60</t>
+  </si>
+  <si>
+    <t>Test61</t>
+  </si>
+  <si>
+    <t>Test62</t>
+  </si>
+  <si>
+    <t>Test63</t>
+  </si>
+  <si>
+    <t>Test64</t>
+  </si>
+  <si>
+    <t>Test65</t>
+  </si>
+  <si>
+    <t>Test66</t>
+  </si>
+  <si>
+    <t>Test67</t>
+  </si>
+  <si>
+    <t>Test68</t>
+  </si>
+  <si>
+    <t>Test69</t>
+  </si>
+  <si>
+    <t>Test70</t>
+  </si>
+  <si>
+    <t>Test71</t>
+  </si>
+  <si>
+    <t>Test72</t>
+  </si>
+  <si>
+    <t>Test73</t>
+  </si>
+  <si>
+    <t>Test74</t>
+  </si>
+  <si>
+    <t>Test75</t>
+  </si>
+  <si>
+    <t>Test76</t>
+  </si>
+  <si>
+    <t>Test77</t>
+  </si>
+  <si>
+    <t>Test78</t>
+  </si>
+  <si>
+    <t>Test79</t>
+  </si>
+  <si>
+    <t>Test80</t>
+  </si>
+  <si>
+    <t>Test81</t>
+  </si>
+  <si>
+    <t>Test82</t>
+  </si>
+  <si>
+    <t>Test83</t>
+  </si>
+  <si>
+    <t>Test84</t>
+  </si>
+  <si>
+    <t>Test85</t>
+  </si>
+  <si>
+    <t>Test86</t>
+  </si>
+  <si>
+    <t>Test87</t>
+  </si>
+  <si>
+    <t>Test88</t>
+  </si>
+  <si>
+    <t>Test89</t>
+  </si>
+  <si>
+    <t>Test90</t>
+  </si>
+  <si>
+    <t>Test91</t>
+  </si>
+  <si>
+    <t>Test92</t>
+  </si>
+  <si>
+    <t>Test93</t>
+  </si>
+  <si>
+    <t>Test94</t>
+  </si>
+  <si>
+    <t>Test95</t>
+  </si>
+  <si>
+    <t>Test96</t>
+  </si>
+  <si>
+    <t>Test97</t>
+  </si>
+  <si>
+    <t>aa22</t>
+  </si>
+  <si>
+    <t>aa23</t>
+  </si>
+  <si>
+    <t>aa24</t>
+  </si>
+  <si>
+    <t>aa25</t>
+  </si>
+  <si>
+    <t>aa26</t>
+  </si>
+  <si>
+    <t>aa27</t>
+  </si>
+  <si>
+    <t>aa28</t>
+  </si>
+  <si>
+    <t>aa29</t>
+  </si>
+  <si>
+    <t>aa30</t>
+  </si>
+  <si>
+    <t>aa31</t>
+  </si>
+  <si>
+    <t>aa32</t>
+  </si>
+  <si>
+    <t>aa33</t>
+  </si>
+  <si>
+    <t>aa34</t>
+  </si>
+  <si>
+    <t>aa35</t>
+  </si>
+  <si>
+    <t>aa36</t>
+  </si>
+  <si>
+    <t>aa37</t>
+  </si>
+  <si>
+    <t>aa38</t>
+  </si>
+  <si>
+    <t>aa39</t>
+  </si>
+  <si>
+    <t>aa40</t>
+  </si>
+  <si>
+    <t>aa41</t>
+  </si>
+  <si>
+    <t>aa42</t>
+  </si>
+  <si>
+    <t>aa43</t>
+  </si>
+  <si>
+    <t>aa44</t>
+  </si>
+  <si>
+    <t>aa45</t>
+  </si>
+  <si>
+    <t>aa46</t>
+  </si>
+  <si>
+    <t>aa47</t>
+  </si>
+  <si>
+    <t>aa48</t>
+  </si>
+  <si>
+    <t>aa49</t>
+  </si>
+  <si>
+    <t>aa50</t>
+  </si>
+  <si>
+    <t>aa51</t>
+  </si>
+  <si>
+    <t>aa52</t>
+  </si>
+  <si>
+    <t>aa53</t>
+  </si>
+  <si>
+    <t>aa54</t>
+  </si>
+  <si>
+    <t>aa55</t>
+  </si>
+  <si>
+    <t>aa56</t>
+  </si>
+  <si>
+    <t>aa57</t>
+  </si>
+  <si>
+    <t>aa58</t>
+  </si>
+  <si>
+    <t>aa59</t>
+  </si>
+  <si>
+    <t>aa60</t>
+  </si>
+  <si>
+    <t>aa61</t>
+  </si>
+  <si>
+    <t>aa62</t>
+  </si>
+  <si>
+    <t>aa63</t>
+  </si>
+  <si>
+    <t>aa64</t>
+  </si>
+  <si>
+    <t>aa65</t>
+  </si>
+  <si>
+    <t>aa66</t>
+  </si>
+  <si>
+    <t>aa67</t>
+  </si>
+  <si>
+    <t>aa68</t>
+  </si>
+  <si>
+    <t>aa69</t>
+  </si>
+  <si>
+    <t>aa70</t>
+  </si>
+  <si>
+    <t>aa71</t>
+  </si>
+  <si>
+    <t>aa72</t>
+  </si>
+  <si>
+    <t>aa73</t>
+  </si>
+  <si>
+    <t>aa74</t>
+  </si>
+  <si>
+    <t>aa75</t>
+  </si>
+  <si>
+    <t>aa76</t>
+  </si>
+  <si>
+    <t>aa77</t>
+  </si>
+  <si>
+    <t>aa78</t>
+  </si>
+  <si>
+    <t>aa79</t>
+  </si>
+  <si>
+    <t>aa80</t>
+  </si>
+  <si>
+    <t>aa81</t>
+  </si>
+  <si>
+    <t>aa82</t>
+  </si>
+  <si>
+    <t>aa83</t>
+  </si>
+  <si>
+    <t>aa84</t>
+  </si>
+  <si>
+    <t>aa85</t>
+  </si>
+  <si>
+    <t>aa86</t>
+  </si>
+  <si>
+    <t>aa87</t>
+  </si>
+  <si>
+    <t>aa88</t>
+  </si>
+  <si>
+    <t>aa89</t>
+  </si>
+  <si>
+    <t>aa90</t>
+  </si>
+  <si>
+    <t>Test98</t>
+  </si>
+  <si>
+    <t>Test99</t>
+  </si>
+  <si>
+    <t>Test100</t>
+  </si>
+  <si>
+    <t>aa91</t>
+  </si>
+  <si>
+    <t>aa92</t>
+  </si>
+  <si>
+    <t>aa93</t>
+  </si>
+  <si>
+    <t>aa94</t>
+  </si>
+  <si>
+    <t>aa95</t>
+  </si>
+  <si>
+    <t>aa96</t>
+  </si>
+  <si>
+    <t>aa97</t>
+  </si>
+  <si>
+    <t>aa98</t>
+  </si>
+  <si>
+    <t>aa99</t>
+  </si>
+  <si>
+    <t>aa100</t>
+  </si>
+  <si>
+    <t>bb1</t>
+  </si>
+  <si>
+    <t>bb2</t>
+  </si>
+  <si>
+    <t>bb3</t>
+  </si>
+  <si>
+    <t>bb4</t>
+  </si>
+  <si>
+    <t>bb5</t>
+  </si>
+  <si>
+    <t>bb6</t>
+  </si>
+  <si>
+    <t>bb7</t>
+  </si>
+  <si>
+    <t>bb8</t>
+  </si>
+  <si>
+    <t>bb9</t>
+  </si>
+  <si>
+    <t>bb10</t>
+  </si>
+  <si>
+    <t>bb11</t>
+  </si>
+  <si>
+    <t>bb12</t>
+  </si>
+  <si>
+    <t>bb13</t>
+  </si>
+  <si>
+    <t>bb14</t>
+  </si>
+  <si>
+    <t>bb15</t>
+  </si>
+  <si>
+    <t>bb16</t>
+  </si>
+  <si>
+    <t>bb17</t>
+  </si>
+  <si>
+    <t>bb18</t>
+  </si>
+  <si>
+    <t>bb19</t>
+  </si>
+  <si>
+    <t>bb20</t>
+  </si>
+  <si>
+    <t>bb21</t>
+  </si>
+  <si>
+    <t>bb22</t>
+  </si>
+  <si>
+    <t>bb23</t>
+  </si>
+  <si>
+    <t>bb24</t>
+  </si>
+  <si>
+    <t>bb25</t>
+  </si>
+  <si>
+    <t>bb26</t>
+  </si>
+  <si>
+    <t>bb27</t>
+  </si>
+  <si>
+    <t>bb28</t>
+  </si>
+  <si>
+    <t>bb29</t>
+  </si>
+  <si>
+    <t>bb30</t>
+  </si>
+  <si>
+    <t>bb31</t>
+  </si>
+  <si>
+    <t>bb32</t>
+  </si>
+  <si>
+    <t>bb33</t>
+  </si>
+  <si>
+    <t>bb34</t>
+  </si>
+  <si>
+    <t>bb35</t>
+  </si>
+  <si>
+    <t>bb36</t>
+  </si>
+  <si>
+    <t>bb37</t>
+  </si>
+  <si>
+    <t>bb38</t>
+  </si>
+  <si>
+    <t>bb39</t>
+  </si>
+  <si>
+    <t>bb40</t>
+  </si>
+  <si>
+    <t>bb41</t>
+  </si>
+  <si>
+    <t>bb42</t>
+  </si>
+  <si>
+    <t>bb43</t>
+  </si>
+  <si>
+    <t>bb44</t>
+  </si>
+  <si>
+    <t>bb45</t>
+  </si>
+  <si>
+    <t>bb46</t>
+  </si>
+  <si>
+    <t>bb47</t>
+  </si>
+  <si>
+    <t>bb48</t>
+  </si>
+  <si>
+    <t>bb49</t>
+  </si>
+  <si>
+    <t>bb50</t>
+  </si>
+  <si>
+    <t>bb51</t>
+  </si>
+  <si>
+    <t>bb52</t>
+  </si>
+  <si>
+    <t>bb53</t>
+  </si>
+  <si>
+    <t>bb54</t>
+  </si>
+  <si>
+    <t>bb55</t>
+  </si>
+  <si>
+    <t>bb56</t>
+  </si>
+  <si>
+    <t>bb57</t>
+  </si>
+  <si>
+    <t>bb58</t>
+  </si>
+  <si>
+    <t>bb59</t>
+  </si>
+  <si>
+    <t>bb60</t>
+  </si>
+  <si>
+    <t>bb61</t>
+  </si>
+  <si>
+    <t>bb62</t>
+  </si>
+  <si>
+    <t>bb63</t>
+  </si>
+  <si>
+    <t>bb64</t>
+  </si>
+  <si>
+    <t>bb65</t>
+  </si>
+  <si>
+    <t>bb66</t>
+  </si>
+  <si>
+    <t>bb67</t>
+  </si>
+  <si>
+    <t>bb68</t>
+  </si>
+  <si>
+    <t>bb69</t>
+  </si>
+  <si>
+    <t>bb70</t>
+  </si>
+  <si>
+    <t>bb71</t>
+  </si>
+  <si>
+    <t>bb72</t>
+  </si>
+  <si>
+    <t>bb73</t>
+  </si>
+  <si>
+    <t>bb74</t>
+  </si>
+  <si>
+    <t>bb75</t>
+  </si>
+  <si>
+    <t>bb76</t>
+  </si>
+  <si>
+    <t>bb77</t>
+  </si>
+  <si>
+    <t>bb78</t>
+  </si>
+  <si>
+    <t>bb79</t>
+  </si>
+  <si>
+    <t>bb80</t>
+  </si>
+  <si>
+    <t>bb81</t>
+  </si>
+  <si>
+    <t>bb82</t>
+  </si>
+  <si>
+    <t>bb83</t>
+  </si>
+  <si>
+    <t>bb84</t>
+  </si>
+  <si>
+    <t>bb85</t>
+  </si>
+  <si>
+    <t>bb86</t>
+  </si>
+  <si>
+    <t>bb87</t>
+  </si>
+  <si>
+    <t>bb88</t>
+  </si>
+  <si>
+    <t>bb89</t>
+  </si>
+  <si>
+    <t>bb90</t>
+  </si>
+  <si>
+    <t>bb91</t>
+  </si>
+  <si>
+    <t>bb92</t>
+  </si>
+  <si>
+    <t>bb93</t>
+  </si>
+  <si>
+    <t>bb94</t>
+  </si>
+  <si>
+    <t>bb95</t>
+  </si>
+  <si>
+    <t>bb96</t>
+  </si>
+  <si>
+    <t>bb97</t>
+  </si>
+  <si>
+    <t>bb98</t>
+  </si>
+  <si>
+    <t>bb99</t>
+  </si>
+  <si>
+    <t>bb100</t>
+  </si>
+  <si>
+    <t>aGAAgtSup sup</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team281</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team282</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team283</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team284</t>
+  </si>
+  <si>
+    <t>trail1 trial2</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team49</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team52</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;team54</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team200</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team201</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team202</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team203</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team280</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team279</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team278</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team277</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team276</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team275</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team274</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team273</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team272</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team271</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team270</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team269</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team268</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team267</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team266</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team265</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team264</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team263</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team262</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team261</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team260</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team259</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team258</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team257</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team256</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team255</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team254</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team253</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team252</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team251</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team250</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team249</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team248</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team247</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team246</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team245</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team244</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team243</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team242</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team241</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team240</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team239</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team238</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team237</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team236</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team235</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team234</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team233</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team232</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team231</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team230</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team229</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team228</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team227</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team226</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team225</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team224</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team223</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team222</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team221</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team220</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team219</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team218</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team217</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team216</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team215</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team214</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team213</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team204</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team205</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team206</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team207</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team208</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team209</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team210</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team211</t>
+  </si>
+  <si>
+    <t>Country1&gt;Division1&gt;department1&gt;Team212</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -344,7 +1865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,6 +1874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +2156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,6 +2798,210 @@
         <v>68</v>
       </c>
     </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1288,7 +3014,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +3180,7 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>73</v>
@@ -1696,7 +3422,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +3577,7 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>73</v>
@@ -2258,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,6 +4359,2703 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>502</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G14" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G17" t="s">
+        <v>502</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" t="s">
+        <v>502</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>583</v>
+      </c>
+      <c r="G21" t="s">
+        <v>502</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" t="s">
+        <v>502</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
+        <v>423</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>585</v>
+      </c>
+      <c r="G23" t="s">
+        <v>507</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" t="s">
+        <v>502</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" t="s">
+        <v>425</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>587</v>
+      </c>
+      <c r="G25" t="s">
+        <v>507</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>589</v>
+      </c>
+      <c r="G27" t="s">
+        <v>502</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" t="s">
+        <v>428</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>590</v>
+      </c>
+      <c r="G28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>591</v>
+      </c>
+      <c r="G29" t="s">
+        <v>502</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>582</v>
+      </c>
+      <c r="G30" t="s">
+        <v>507</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G31" t="s">
+        <v>502</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" t="s">
+        <v>432</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>580</v>
+      </c>
+      <c r="G32" t="s">
+        <v>502</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G33" t="s">
+        <v>507</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>434</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>578</v>
+      </c>
+      <c r="G34" t="s">
+        <v>502</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>577</v>
+      </c>
+      <c r="G35" t="s">
+        <v>507</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" t="s">
+        <v>436</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>576</v>
+      </c>
+      <c r="G36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>575</v>
+      </c>
+      <c r="G37" t="s">
+        <v>502</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" t="s">
+        <v>438</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" t="s">
+        <v>507</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>573</v>
+      </c>
+      <c r="G39" t="s">
+        <v>502</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>440</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>572</v>
+      </c>
+      <c r="G40" t="s">
+        <v>507</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" t="s">
+        <v>441</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>571</v>
+      </c>
+      <c r="G41" t="s">
+        <v>502</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>570</v>
+      </c>
+      <c r="G42" t="s">
+        <v>502</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>569</v>
+      </c>
+      <c r="G43" t="s">
+        <v>507</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" t="s">
+        <v>444</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>568</v>
+      </c>
+      <c r="G44" t="s">
+        <v>502</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>567</v>
+      </c>
+      <c r="G45" t="s">
+        <v>507</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>566</v>
+      </c>
+      <c r="G46" t="s">
+        <v>502</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" t="s">
+        <v>447</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>565</v>
+      </c>
+      <c r="G47" t="s">
+        <v>502</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" t="s">
+        <v>448</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>564</v>
+      </c>
+      <c r="G48" t="s">
+        <v>507</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>563</v>
+      </c>
+      <c r="G49" t="s">
+        <v>502</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" t="s">
+        <v>450</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>562</v>
+      </c>
+      <c r="G50" t="s">
+        <v>507</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G51" t="s">
+        <v>502</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>560</v>
+      </c>
+      <c r="G52" t="s">
+        <v>502</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" t="s">
+        <v>453</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" t="s">
+        <v>507</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" t="s">
+        <v>454</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>558</v>
+      </c>
+      <c r="G54" t="s">
+        <v>502</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>352</v>
+      </c>
+      <c r="D55" t="s">
+        <v>455</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>557</v>
+      </c>
+      <c r="G55" t="s">
+        <v>507</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" t="s">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>556</v>
+      </c>
+      <c r="G56" t="s">
+        <v>502</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" t="s">
+        <v>457</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>555</v>
+      </c>
+      <c r="G57" t="s">
+        <v>502</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" t="s">
+        <v>458</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>554</v>
+      </c>
+      <c r="G58" t="s">
+        <v>507</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>356</v>
+      </c>
+      <c r="D59" t="s">
+        <v>459</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>553</v>
+      </c>
+      <c r="G59" t="s">
+        <v>502</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" t="s">
+        <v>460</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>552</v>
+      </c>
+      <c r="G60" t="s">
+        <v>507</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" t="s">
+        <v>461</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>551</v>
+      </c>
+      <c r="G61" t="s">
+        <v>502</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>550</v>
+      </c>
+      <c r="G62" t="s">
+        <v>502</v>
+      </c>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" t="s">
+        <v>463</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>549</v>
+      </c>
+      <c r="G63" t="s">
+        <v>507</v>
+      </c>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" t="s">
+        <v>361</v>
+      </c>
+      <c r="D64" t="s">
+        <v>464</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>548</v>
+      </c>
+      <c r="G64" t="s">
+        <v>502</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" t="s">
+        <v>465</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>547</v>
+      </c>
+      <c r="G65" t="s">
+        <v>507</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" t="s">
+        <v>466</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>546</v>
+      </c>
+      <c r="G66" t="s">
+        <v>502</v>
+      </c>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" t="s">
+        <v>364</v>
+      </c>
+      <c r="D67" t="s">
+        <v>467</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" t="s">
+        <v>502</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>507</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" t="s">
+        <v>469</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" t="s">
+        <v>502</v>
+      </c>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" t="s">
+        <v>367</v>
+      </c>
+      <c r="D70" t="s">
+        <v>470</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>542</v>
+      </c>
+      <c r="G70" t="s">
+        <v>507</v>
+      </c>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s">
+        <v>368</v>
+      </c>
+      <c r="D71" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>541</v>
+      </c>
+      <c r="G71" t="s">
+        <v>502</v>
+      </c>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" t="s">
+        <v>472</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
+        <v>502</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>507</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>371</v>
+      </c>
+      <c r="D74" t="s">
+        <v>474</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>538</v>
+      </c>
+      <c r="G74" t="s">
+        <v>502</v>
+      </c>
+      <c r="H74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" t="s">
+        <v>475</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>537</v>
+      </c>
+      <c r="G75" t="s">
+        <v>507</v>
+      </c>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" t="s">
+        <v>476</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" t="s">
+        <v>502</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" t="s">
+        <v>477</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>502</v>
+      </c>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" t="s">
+        <v>478</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>534</v>
+      </c>
+      <c r="G78" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" t="s">
+        <v>376</v>
+      </c>
+      <c r="D79" t="s">
+        <v>479</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G79" t="s">
+        <v>502</v>
+      </c>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" t="s">
+        <v>480</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>532</v>
+      </c>
+      <c r="G80" t="s">
+        <v>507</v>
+      </c>
+      <c r="H80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" t="s">
+        <v>481</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>531</v>
+      </c>
+      <c r="G81" t="s">
+        <v>502</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" t="s">
+        <v>482</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" t="s">
+        <v>502</v>
+      </c>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" t="s">
+        <v>380</v>
+      </c>
+      <c r="D83" t="s">
+        <v>483</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>529</v>
+      </c>
+      <c r="G83" t="s">
+        <v>507</v>
+      </c>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" t="s">
+        <v>484</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>528</v>
+      </c>
+      <c r="G84" t="s">
+        <v>502</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" t="s">
+        <v>382</v>
+      </c>
+      <c r="D85" t="s">
+        <v>485</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>527</v>
+      </c>
+      <c r="G85" t="s">
+        <v>507</v>
+      </c>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" t="s">
+        <v>486</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86" t="s">
+        <v>502</v>
+      </c>
+      <c r="H86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87" t="s">
+        <v>487</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>525</v>
+      </c>
+      <c r="G87" t="s">
+        <v>502</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" t="s">
+        <v>488</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>524</v>
+      </c>
+      <c r="G88" t="s">
+        <v>507</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" t="s">
+        <v>386</v>
+      </c>
+      <c r="D89" t="s">
+        <v>489</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>523</v>
+      </c>
+      <c r="G89" t="s">
+        <v>502</v>
+      </c>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" t="s">
+        <v>490</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>522</v>
+      </c>
+      <c r="G90" t="s">
+        <v>507</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s">
+        <v>388</v>
+      </c>
+      <c r="D91" t="s">
+        <v>491</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>521</v>
+      </c>
+      <c r="G91" t="s">
+        <v>502</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" t="s">
+        <v>392</v>
+      </c>
+      <c r="D92" t="s">
+        <v>492</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>520</v>
+      </c>
+      <c r="G92" t="s">
+        <v>502</v>
+      </c>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" t="s">
+        <v>493</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>519</v>
+      </c>
+      <c r="G93" t="s">
+        <v>507</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" t="s">
+        <v>394</v>
+      </c>
+      <c r="D94" t="s">
+        <v>494</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>518</v>
+      </c>
+      <c r="G94" t="s">
+        <v>502</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s">
+        <v>395</v>
+      </c>
+      <c r="D95" t="s">
+        <v>495</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>517</v>
+      </c>
+      <c r="G95" t="s">
+        <v>507</v>
+      </c>
+      <c r="H95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" t="s">
+        <v>396</v>
+      </c>
+      <c r="D96" t="s">
+        <v>496</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>516</v>
+      </c>
+      <c r="G96" t="s">
+        <v>502</v>
+      </c>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>318</v>
+      </c>
+      <c r="C97" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" t="s">
+        <v>497</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>515</v>
+      </c>
+      <c r="G97" t="s">
+        <v>502</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" t="s">
+        <v>398</v>
+      </c>
+      <c r="D98" t="s">
+        <v>498</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>503</v>
+      </c>
+      <c r="G98" t="s">
+        <v>507</v>
+      </c>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" t="s">
+        <v>399</v>
+      </c>
+      <c r="D99" t="s">
+        <v>499</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>504</v>
+      </c>
+      <c r="G99" t="s">
+        <v>502</v>
+      </c>
+      <c r="H99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>500</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>505</v>
+      </c>
+      <c r="G100" t="s">
+        <v>507</v>
+      </c>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" t="s">
+        <v>391</v>
+      </c>
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
+        <v>501</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>506</v>
+      </c>
+      <c r="G101" t="s">
+        <v>502</v>
+      </c>
+      <c r="H101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="G102" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="G103" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73500A-6573-48A0-8BB4-8BFAC8AA4398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="95">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -294,12 +294,27 @@
   </si>
   <si>
     <t>Santosh K</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,28 +647,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="58.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -742,7 +757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -831,7 +846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -920,7 +935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1283,33 +1298,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.453125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="64.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -1691,28 +1706,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1896,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2080,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -2179,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2187,19 +2202,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2240,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2257,25 +2272,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -2631,8 +2646,31 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73500A-6573-48A0-8BB4-8BFAC8AA4398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9403F-879C-4F25-B13D-2C42B83FCD0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="96">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Text Template Name</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,6 +668,7 @@
     <col min="6" max="6" width="33.453125" customWidth="1"/>
     <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -730,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>22</v>
@@ -1302,8 +1306,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
@@ -1710,8 +1714,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1789,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>22</v>

--- a/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSettingsData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD441F-B6B8-49D9-8281-9C99D87D0224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="97">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -287,37 +287,40 @@
     <t>Qualified</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>edi</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>Text Template Name</t>
+  </si>
+  <si>
+    <t>Qualified Supervisor</t>
+  </si>
+  <si>
+    <t>Aravinda ET</t>
+  </si>
+  <si>
+    <t>EveningGreeting</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Text Template Name</t>
-  </si>
-  <si>
-    <t>Qualified Supervisor</t>
-  </si>
-  <si>
-    <t>Aravinda ET</t>
-  </si>
-  <si>
-    <t>EveningGreeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,14 +646,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -658,21 +661,21 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -734,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>22</v>
@@ -761,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -808,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -823,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
         <v>36</v>
@@ -850,7 +853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -912,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -939,7 +942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -986,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>29</v>
@@ -1001,7 +1004,7 @@
         <v>28</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V4" t="s">
         <v>36</v>
@@ -1028,7 +1031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>29</v>
@@ -1090,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V5" t="s">
         <v>36</v>
@@ -1117,7 +1120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>29</v>
@@ -1179,7 +1182,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -1206,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>29</v>
@@ -1268,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V7" t="s">
         <v>36</v>
@@ -1302,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -1310,25 +1313,25 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="12" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="12" width="10.44140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>72</v>
@@ -1488,7 +1491,7 @@
         <v>28</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W2" t="s">
         <v>66</v>
@@ -1518,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>28</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W3" t="s">
         <v>66</v>
@@ -1610,7 +1613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>29</v>
@@ -1673,7 +1676,7 @@
         <v>28</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W4" t="s">
         <v>66</v>
@@ -1710,29 +1713,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="72.599999999999994" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>22</v>
@@ -1824,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -1886,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
         <v>36</v>
@@ -1916,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>72</v>
@@ -1978,7 +1981,7 @@
         <v>28</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
         <v>66</v>
@@ -2008,9 +2011,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2018,7 +2018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2026,19 +2026,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2096,25 +2096,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="72.599999999999994" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -2470,30 +2470,33 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
